--- a/data/trans_dic/LAWTONB_2R3-Edad-trans_dic.xlsx
+++ b/data/trans_dic/LAWTONB_2R3-Edad-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.08077570809038337</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.0857293829707603</v>
+        <v>0.08572938297076034</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03839436465766573</v>
+        <v>0.03879582970125493</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.06505354971304646</v>
+        <v>0.06484227840743145</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0425268989865553</v>
+        <v>0.04059844352643613</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.05055346791884054</v>
+        <v>0.05218663783442513</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.07225632763069964</v>
+        <v>0.07148198490685387</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.08059786852589088</v>
+        <v>0.08040771377434029</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.06938704621516138</v>
+        <v>0.06696674231427985</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.08107604753727529</v>
+        <v>0.08092291958560052</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.06257347937671123</v>
+        <v>0.06152250112242864</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.07951936346882109</v>
+        <v>0.08266940077849497</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.06250026583112275</v>
+        <v>0.06218386828345412</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.07235837358424031</v>
+        <v>0.07155750382485575</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.09747360011264619</v>
+        <v>0.1017230854878714</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1363716307264345</v>
+        <v>0.1401272008222502</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.09574937392589102</v>
+        <v>0.09735927198978644</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.0901458842181191</v>
+        <v>0.09196727208727598</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.133297206604487</v>
+        <v>0.1331788706273893</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1531701474114362</v>
+        <v>0.1553776367527095</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1349487833804789</v>
+        <v>0.1254263741276981</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1229500807286339</v>
+        <v>0.1202940051024614</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1036345407194444</v>
+        <v>0.1042498526607823</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1287337971985636</v>
+        <v>0.1356334949713134</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1035060746782974</v>
+        <v>0.1045252761783736</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1009461344688051</v>
+        <v>0.1024170153768413</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1698104934508107</v>
+        <v>0.1686850043244429</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2858453317967252</v>
+        <v>0.2841113935091188</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2138025116471202</v>
+        <v>0.2121687601662502</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2379810524158178</v>
+        <v>0.2355955788981414</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2282779884579429</v>
+        <v>0.2249570633337391</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3478257130077944</v>
+        <v>0.3499155126050761</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3190055220224527</v>
+        <v>0.3126341137636436</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.4249366548856713</v>
+        <v>0.4263103580881263</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.215744079211516</v>
+        <v>0.218042191020843</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.3372795538165318</v>
+        <v>0.3380425340685924</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2905187118433313</v>
+        <v>0.2902211549146372</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.3579068680481735</v>
+        <v>0.3619748931403619</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2804191477536479</v>
+        <v>0.2775678994117737</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4161235136623143</v>
+        <v>0.4192647387809429</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.315029908766619</v>
+        <v>0.3134251559756381</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3192638639336829</v>
+        <v>0.3182031192697723</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3289344335921928</v>
+        <v>0.3255234308306241</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4508821312061741</v>
+        <v>0.4508537042845886</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4241090656446179</v>
+        <v>0.4224065411254878</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.4928648777056195</v>
+        <v>0.4930493860768377</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2923299236626651</v>
+        <v>0.2948310021111443</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.4186786832568639</v>
+        <v>0.4196291237910892</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3703401933405864</v>
+        <v>0.3703206248433388</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.4128425331228126</v>
+        <v>0.4176652514353031</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.2356850902301122</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.2843205443861945</v>
+        <v>0.2843205443861946</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.1615335818302416</v>
@@ -969,7 +969,7 @@
         <v>0.1989635553064476</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.2293674586049771</v>
+        <v>0.229367458604977</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.102339657825441</v>
+        <v>0.1050894556205817</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1721414536845844</v>
+        <v>0.1703829782223399</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1229027977679228</v>
+        <v>0.1252681364379513</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1386692186258262</v>
+        <v>0.1380809580121421</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1567462371868074</v>
+        <v>0.1563484564930017</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2289677460627383</v>
+        <v>0.2309471252751682</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2026638777498206</v>
+        <v>0.2029084896002077</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2610304638982825</v>
+        <v>0.2629294017294213</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1395212927983874</v>
+        <v>0.139905424332552</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2156906679844358</v>
+        <v>0.2160563263473659</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1759973014521063</v>
+        <v>0.1767220275867888</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.213086663534298</v>
+        <v>0.2137453231795672</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.161099927688192</v>
+        <v>0.1618023642772639</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2482533458573305</v>
+        <v>0.2481844182131615</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1780213972559931</v>
+        <v>0.1796375517790794</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1819598922822145</v>
+        <v>0.1834510773133514</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.217291941809795</v>
+        <v>0.2182355184579468</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2972471592053033</v>
+        <v>0.2960561611486903</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2679480684836626</v>
+        <v>0.2700061819504744</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3060275747994671</v>
+        <v>0.3084336816427625</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1854226919725903</v>
+        <v>0.1829125183753606</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2663729468367856</v>
+        <v>0.2626933883316452</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2214469323528347</v>
+        <v>0.2214184270641579</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2455771734084569</v>
+        <v>0.2463398474749019</v>
       </c>
     </row>
     <row r="13">
@@ -1326,40 +1326,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>11234</v>
+        <v>11351</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>20153</v>
+        <v>20087</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>14218</v>
+        <v>13573</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>20380</v>
+        <v>21039</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>24779</v>
+        <v>24514</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>28531</v>
+        <v>28464</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>26212</v>
+        <v>25297</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>35456</v>
+        <v>35389</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>39767</v>
+        <v>39099</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>52784</v>
+        <v>54874</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>44506</v>
+        <v>44281</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>60814</v>
+        <v>60141</v>
       </c>
     </row>
     <row r="7">
@@ -1370,40 +1370,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>28519</v>
+        <v>29762</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>42246</v>
+        <v>43409</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>32012</v>
+        <v>32550</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>36341</v>
+        <v>37076</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>45712</v>
+        <v>45672</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>54222</v>
+        <v>55003</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>50979</v>
+        <v>47381</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>53769</v>
+        <v>52607</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>65862</v>
+        <v>66253</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>85451</v>
+        <v>90031</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>73706</v>
+        <v>74432</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>84841</v>
+        <v>86077</v>
       </c>
     </row>
     <row r="8">
@@ -1506,40 +1506,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>35640</v>
+        <v>35404</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>71419</v>
+        <v>70986</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>54947</v>
+        <v>54527</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>73076</v>
+        <v>72344</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>76224</v>
+        <v>75115</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>135297</v>
+        <v>136110</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>127656</v>
+        <v>125106</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>195852</v>
+        <v>196486</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>117320</v>
+        <v>118569</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>215464</v>
+        <v>215952</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>190919</v>
+        <v>190724</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>274860</v>
+        <v>277984</v>
       </c>
     </row>
     <row r="11">
@@ -1550,40 +1550,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>58855</v>
+        <v>58257</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>103969</v>
+        <v>104754</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>80962</v>
+        <v>80550</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>98035</v>
+        <v>97710</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>109834</v>
+        <v>108695</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>175384</v>
+        <v>175373</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>169715</v>
+        <v>169034</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>227160</v>
+        <v>227245</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>158966</v>
+        <v>160326</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>267465</v>
+        <v>268072</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>243375</v>
+        <v>243362</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>317048</v>
+        <v>320752</v>
       </c>
     </row>
     <row r="12">
@@ -1686,40 +1686,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>51422</v>
+        <v>52804</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>96337</v>
+        <v>95353</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>72676</v>
+        <v>74075</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>98484</v>
+        <v>98066</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>106092</v>
+        <v>105823</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>170117</v>
+        <v>171588</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>157659</v>
+        <v>157849</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>234462</v>
+        <v>236168</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>164539</v>
+        <v>164992</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>280961</v>
+        <v>281438</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>240986</v>
+        <v>241978</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>342734</v>
+        <v>343793</v>
       </c>
     </row>
     <row r="15">
@@ -1730,40 +1730,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>80947</v>
+        <v>81300</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>138932</v>
+        <v>138893</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>105269</v>
+        <v>106225</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>129229</v>
+        <v>130288</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>147072</v>
+        <v>147711</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>220847</v>
+        <v>219962</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>208445</v>
+        <v>210046</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>274879</v>
+        <v>277041</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>218670</v>
+        <v>215710</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>346981</v>
+        <v>342188</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>303218</v>
+        <v>303179</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>394992</v>
+        <v>396219</v>
       </c>
     </row>
     <row r="16">
